--- a/src/test/resources/data/program.xlsx
+++ b/src/test/resources/data/program.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsri3\WorkSpace\LMSRestAssured\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AB74C7-BE2F-4510-ABA6-D218164A205B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB073B9E-D6D9-40A4-9EA8-C0729F969E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{13D26706-695B-477D-BD0F-72372C22829E}"/>
   </bookViews>
@@ -48,16 +48,16 @@
     <t>programddesNu</t>
   </si>
   <si>
-    <t>June23-ninjalibaries-SDET111-150</t>
-  </si>
-  <si>
-    <t>July27-ninjalibaries-SDET111-111</t>
-  </si>
-  <si>
-    <t>June23-ninjalibaries-SDET111-111</t>
-  </si>
-  <si>
-    <t>July27-ninjalibaries-SDET222-222</t>
+    <t>July27-ninjalibaries-SDET333-333</t>
+  </si>
+  <si>
+    <t>July27-ninjalibaries-SDET444-444</t>
+  </si>
+  <si>
+    <t>June23-ninjalibaries-SDET333-333</t>
+  </si>
+  <si>
+    <t>June23-ninjalibaries-SDET444-444</t>
   </si>
 </sst>
 </file>
@@ -439,7 +439,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -453,10 +453,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>

--- a/src/test/resources/data/program.xlsx
+++ b/src/test/resources/data/program.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jsri3\WorkSpace\LMSRestAssured\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB073B9E-D6D9-40A4-9EA8-C0729F969E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3C0FAE-D267-4FC0-8C43-90A1370AE7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{13D26706-695B-477D-BD0F-72372C22829E}"/>
   </bookViews>
@@ -48,16 +48,16 @@
     <t>programddesNu</t>
   </si>
   <si>
-    <t>July27-ninjalibaries-SDET333-333</t>
-  </si>
-  <si>
-    <t>July27-ninjalibaries-SDET444-444</t>
-  </si>
-  <si>
-    <t>June23-ninjalibaries-SDET333-333</t>
-  </si>
-  <si>
-    <t>June23-ninjalibaries-SDET444-444</t>
+    <t>July27-ninjalibaries-SDET321-321</t>
+  </si>
+  <si>
+    <t>July27-ninjalibaries-SDET432-432</t>
+  </si>
+  <si>
+    <t>June23-ninjalibaries-SDET432-432</t>
+  </si>
+  <si>
+    <t>June23-ninjalibaries-SDET321-321</t>
   </si>
 </sst>
 </file>
@@ -442,7 +442,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -456,7 +456,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
